--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.93564036976316</v>
+        <v>4.243623333333334</v>
       </c>
       <c r="H2">
-        <v>3.93564036976316</v>
+        <v>12.73087</v>
       </c>
       <c r="I2">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968972</v>
       </c>
       <c r="J2">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968973</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.04890900580473</v>
+        <v>0.09324</v>
       </c>
       <c r="N2">
-        <v>2.04890900580473</v>
+        <v>0.27972</v>
       </c>
       <c r="O2">
-        <v>0.9133264509500332</v>
+        <v>0.03378127458009811</v>
       </c>
       <c r="P2">
-        <v>0.9133264509500332</v>
+        <v>0.03378127458009811</v>
       </c>
       <c r="Q2">
-        <v>8.063768997216396</v>
+        <v>0.3956754396000001</v>
       </c>
       <c r="R2">
-        <v>8.063768997216396</v>
+        <v>3.561078956400001</v>
       </c>
       <c r="S2">
-        <v>0.23463615507478</v>
+        <v>0.008341429246745944</v>
       </c>
       <c r="T2">
-        <v>0.23463615507478</v>
+        <v>0.008341429246745946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.93564036976316</v>
+        <v>4.243623333333334</v>
       </c>
       <c r="H3">
-        <v>3.93564036976316</v>
+        <v>12.73087</v>
       </c>
       <c r="I3">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968972</v>
       </c>
       <c r="J3">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968973</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.194438927098642</v>
+        <v>2.293427</v>
       </c>
       <c r="N3">
-        <v>0.194438927098642</v>
+        <v>6.880281</v>
       </c>
       <c r="O3">
-        <v>0.08667354904996677</v>
+        <v>0.8309189963150005</v>
       </c>
       <c r="P3">
-        <v>0.08667354904996677</v>
+        <v>0.8309189963150007</v>
       </c>
       <c r="Q3">
-        <v>0.7652416909428514</v>
+        <v>9.732440330496667</v>
       </c>
       <c r="R3">
-        <v>0.7652416909428514</v>
+        <v>87.59196297447001</v>
       </c>
       <c r="S3">
-        <v>0.02226668052218949</v>
+        <v>0.2051743785186273</v>
       </c>
       <c r="T3">
-        <v>0.02226668052218949</v>
+        <v>0.2051743785186274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.79885071893769</v>
+        <v>4.243623333333334</v>
       </c>
       <c r="H4">
-        <v>5.79885071893769</v>
+        <v>12.73087</v>
       </c>
       <c r="I4">
-        <v>0.3785257424291203</v>
+        <v>0.2469246453968972</v>
       </c>
       <c r="J4">
-        <v>0.3785257424291203</v>
+        <v>0.2469246453968973</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.04890900580473</v>
+        <v>0.373442</v>
       </c>
       <c r="N4">
-        <v>2.04890900580473</v>
+        <v>1.120326</v>
       </c>
       <c r="O4">
-        <v>0.9133264509500332</v>
+        <v>0.1352997291049013</v>
       </c>
       <c r="P4">
-        <v>0.9133264509500332</v>
+        <v>0.1352997291049013</v>
       </c>
       <c r="Q4">
-        <v>11.88131746134867</v>
+        <v>1.584747184846667</v>
       </c>
       <c r="R4">
-        <v>11.88131746134867</v>
+        <v>14.26272466362</v>
       </c>
       <c r="S4">
-        <v>0.3457175729260149</v>
+        <v>0.03340883763152401</v>
       </c>
       <c r="T4">
-        <v>0.3457175729260149</v>
+        <v>0.03340883763152402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.79885071893769</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H5">
-        <v>5.79885071893769</v>
+        <v>17.596475</v>
       </c>
       <c r="I5">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647515</v>
       </c>
       <c r="J5">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647516</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.194438927098642</v>
+        <v>0.09324</v>
       </c>
       <c r="N5">
-        <v>0.194438927098642</v>
+        <v>0.27972</v>
       </c>
       <c r="O5">
-        <v>0.08667354904996677</v>
+        <v>0.03378127458009811</v>
       </c>
       <c r="P5">
-        <v>0.08667354904996677</v>
+        <v>0.03378127458009811</v>
       </c>
       <c r="Q5">
-        <v>1.127522312195433</v>
+        <v>0.5468984430000001</v>
       </c>
       <c r="R5">
-        <v>1.127522312195433</v>
+        <v>4.922085987000001</v>
       </c>
       <c r="S5">
-        <v>0.03280816950310545</v>
+        <v>0.01152943602476766</v>
       </c>
       <c r="T5">
-        <v>0.03280816950310545</v>
+        <v>0.01152943602476766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.28580010876254</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H6">
-        <v>5.28580010876254</v>
+        <v>17.596475</v>
       </c>
       <c r="I6">
-        <v>0.3450358540817551</v>
+        <v>0.3412966552647515</v>
       </c>
       <c r="J6">
-        <v>0.3450358540817551</v>
+        <v>0.3412966552647516</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.04890900580473</v>
+        <v>2.293427</v>
       </c>
       <c r="N6">
-        <v>2.04890900580473</v>
+        <v>6.880281</v>
       </c>
       <c r="O6">
-        <v>0.9133264509500332</v>
+        <v>0.8309189963150005</v>
       </c>
       <c r="P6">
-        <v>0.9133264509500332</v>
+        <v>0.8309189963150007</v>
       </c>
       <c r="Q6">
-        <v>10.83012344572719</v>
+        <v>13.45207695660833</v>
       </c>
       <c r="R6">
-        <v>10.83012344572719</v>
+        <v>121.068692609475</v>
       </c>
       <c r="S6">
-        <v>0.315130372059003</v>
+        <v>0.283589874238254</v>
       </c>
       <c r="T6">
-        <v>0.315130372059003</v>
+        <v>0.2835898742382542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.28580010876254</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H7">
-        <v>5.28580010876254</v>
+        <v>17.596475</v>
       </c>
       <c r="I7">
-        <v>0.3450358540817551</v>
+        <v>0.3412966552647515</v>
       </c>
       <c r="J7">
-        <v>0.3450358540817551</v>
+        <v>0.3412966552647516</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.194438927098642</v>
+        <v>0.373442</v>
       </c>
       <c r="N7">
-        <v>0.194438927098642</v>
+        <v>1.120326</v>
       </c>
       <c r="O7">
-        <v>0.08667354904996677</v>
+        <v>0.1352997291049013</v>
       </c>
       <c r="P7">
-        <v>0.08667354904996677</v>
+        <v>0.1352997291049013</v>
       </c>
       <c r="Q7">
-        <v>1.027765302005674</v>
+        <v>2.190420938983333</v>
       </c>
       <c r="R7">
-        <v>1.027765302005674</v>
+        <v>19.71378845085</v>
       </c>
       <c r="S7">
-        <v>0.02990548202275218</v>
+        <v>0.04617734500172976</v>
       </c>
       <c r="T7">
-        <v>0.02990548202275218</v>
+        <v>0.04617734500172978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.299276453932303</v>
+        <v>6.123111999999999</v>
       </c>
       <c r="H8">
-        <v>0.299276453932303</v>
+        <v>18.369336</v>
       </c>
       <c r="I8">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="J8">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.04890900580473</v>
+        <v>0.09324</v>
       </c>
       <c r="N8">
-        <v>2.04890900580473</v>
+        <v>0.27972</v>
       </c>
       <c r="O8">
-        <v>0.9133264509500332</v>
+        <v>0.03378127458009811</v>
       </c>
       <c r="P8">
-        <v>0.9133264509500332</v>
+        <v>0.03378127458009811</v>
       </c>
       <c r="Q8">
-        <v>0.6131902216872001</v>
+        <v>0.5709189628799999</v>
       </c>
       <c r="R8">
-        <v>0.6131902216872001</v>
+        <v>5.138270665919999</v>
       </c>
       <c r="S8">
-        <v>0.0178423508902354</v>
+        <v>0.01203582446083442</v>
       </c>
       <c r="T8">
-        <v>0.0178423508902354</v>
+        <v>0.01203582446083442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.123111999999999</v>
+      </c>
+      <c r="H9">
+        <v>18.369336</v>
+      </c>
+      <c r="I9">
+        <v>0.3562868663317164</v>
+      </c>
+      <c r="J9">
+        <v>0.3562868663317164</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.293427</v>
+      </c>
+      <c r="N9">
+        <v>6.880281</v>
+      </c>
+      <c r="O9">
+        <v>0.8309189963150005</v>
+      </c>
+      <c r="P9">
+        <v>0.8309189963150007</v>
+      </c>
+      <c r="Q9">
+        <v>14.042910384824</v>
+      </c>
+      <c r="R9">
+        <v>126.386193463416</v>
+      </c>
+      <c r="S9">
+        <v>0.2960455253725665</v>
+      </c>
+      <c r="T9">
+        <v>0.2960455253725666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.299276453932303</v>
-      </c>
-      <c r="H9">
-        <v>0.299276453932303</v>
-      </c>
-      <c r="I9">
-        <v>0.01953556789215506</v>
-      </c>
-      <c r="J9">
-        <v>0.01953556789215506</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.194438927098642</v>
-      </c>
-      <c r="N9">
-        <v>0.194438927098642</v>
-      </c>
-      <c r="O9">
-        <v>0.08667354904996677</v>
-      </c>
-      <c r="P9">
-        <v>0.08667354904996677</v>
-      </c>
-      <c r="Q9">
-        <v>0.05819099260848316</v>
-      </c>
-      <c r="R9">
-        <v>0.05819099260848316</v>
-      </c>
-      <c r="S9">
-        <v>0.001693217001919658</v>
-      </c>
-      <c r="T9">
-        <v>0.001693217001919658</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.123111999999999</v>
+      </c>
+      <c r="H10">
+        <v>18.369336</v>
+      </c>
+      <c r="I10">
+        <v>0.3562868663317164</v>
+      </c>
+      <c r="J10">
+        <v>0.3562868663317164</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.373442</v>
+      </c>
+      <c r="N10">
+        <v>1.120326</v>
+      </c>
+      <c r="O10">
+        <v>0.1352997291049013</v>
+      </c>
+      <c r="P10">
+        <v>0.1352997291049013</v>
+      </c>
+      <c r="Q10">
+        <v>2.286627191504</v>
+      </c>
+      <c r="R10">
+        <v>20.579644723536</v>
+      </c>
+      <c r="S10">
+        <v>0.0482055164983154</v>
+      </c>
+      <c r="T10">
+        <v>0.04820551649831541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9536773333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.861032</v>
+      </c>
+      <c r="I11">
+        <v>0.05549183300663471</v>
+      </c>
+      <c r="J11">
+        <v>0.05549183300663472</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.09324</v>
+      </c>
+      <c r="N11">
+        <v>0.27972</v>
+      </c>
+      <c r="O11">
+        <v>0.03378127458009811</v>
+      </c>
+      <c r="P11">
+        <v>0.03378127458009811</v>
+      </c>
+      <c r="Q11">
+        <v>0.08892087456</v>
+      </c>
+      <c r="R11">
+        <v>0.8002878710400001</v>
+      </c>
+      <c r="S11">
+        <v>0.001874584847750078</v>
+      </c>
+      <c r="T11">
+        <v>0.001874584847750079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9536773333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.861032</v>
+      </c>
+      <c r="I12">
+        <v>0.05549183300663471</v>
+      </c>
+      <c r="J12">
+        <v>0.05549183300663472</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.293427</v>
+      </c>
+      <c r="N12">
+        <v>6.880281</v>
+      </c>
+      <c r="O12">
+        <v>0.8309189963150005</v>
+      </c>
+      <c r="P12">
+        <v>0.8309189963150007</v>
+      </c>
+      <c r="Q12">
+        <v>2.187189345554667</v>
+      </c>
+      <c r="R12">
+        <v>19.684704109992</v>
+      </c>
+      <c r="S12">
+        <v>0.04610921818555253</v>
+      </c>
+      <c r="T12">
+        <v>0.04610921818555255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9536773333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.861032</v>
+      </c>
+      <c r="I13">
+        <v>0.05549183300663471</v>
+      </c>
+      <c r="J13">
+        <v>0.05549183300663472</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.373442</v>
+      </c>
+      <c r="N13">
+        <v>1.120326</v>
+      </c>
+      <c r="O13">
+        <v>0.1352997291049013</v>
+      </c>
+      <c r="P13">
+        <v>0.1352997291049013</v>
+      </c>
+      <c r="Q13">
+        <v>0.3561431707146667</v>
+      </c>
+      <c r="R13">
+        <v>3.205288536432</v>
+      </c>
+      <c r="S13">
+        <v>0.007508029973332097</v>
+      </c>
+      <c r="T13">
+        <v>0.007508029973332098</v>
       </c>
     </row>
   </sheetData>
